--- a/biology/Biologie cellulaire et moléculaire/Correction_du_récepteur/Correction_du_récepteur.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Correction_du_récepteur/Correction_du_récepteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Correction_du_r%C3%A9cepteur</t>
+          <t>Correction_du_récepteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La correction du récepteur est un processus qui se produit pendant la maturation des lymphocytes B. Ce processus fait partie de la tolérance centrale tentant à modifier la spécificité du récepteur BCR des cellules B immatures auto-réactives aux auto-antigenes, afin de les sauver de la mort cellulaire programmée, appelée apoptose[1]. On pense que 20 à 50% de toutes les cellules B naïves périphériques ont subi une modification des récepteurs, ce qui en fait la méthode la plus courante pour éliminer les cellules B autoréactives[2].
-Pendant la maturation dans la moelle osseuse, les lymphocytes B sont testés pour l'interaction avec les auto-antigènes, c'est la sélection négative. Si les cellules B en cours de maturation interagissent fortement avec ces auto-antigènes, elles subissent la mort par apoptose. La sélection négative est importante pour éviter la production de cellules B qui pourraient provoquer des maladies auto-immunes. Ils peuvent éviter l'apoptose en modifiant la séquence des gènes V et J des chaînes légères (composantes du récepteur de l'antigène) afin qu'elle ait une spécificité différente et ne reconnaisse plus les auto-antigènes. Ce processus de modification de la spécificité du récepteur des cellules B immatures est appelé correction du récepteur[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La correction du récepteur est un processus qui se produit pendant la maturation des lymphocytes B. Ce processus fait partie de la tolérance centrale tentant à modifier la spécificité du récepteur BCR des cellules B immatures auto-réactives aux auto-antigenes, afin de les sauver de la mort cellulaire programmée, appelée apoptose. On pense que 20 à 50% de toutes les cellules B naïves périphériques ont subi une modification des récepteurs, ce qui en fait la méthode la plus courante pour éliminer les cellules B autoréactives.
+Pendant la maturation dans la moelle osseuse, les lymphocytes B sont testés pour l'interaction avec les auto-antigènes, c'est la sélection négative. Si les cellules B en cours de maturation interagissent fortement avec ces auto-antigènes, elles subissent la mort par apoptose. La sélection négative est importante pour éviter la production de cellules B qui pourraient provoquer des maladies auto-immunes. Ils peuvent éviter l'apoptose en modifiant la séquence des gènes V et J des chaînes légères (composantes du récepteur de l'antigène) afin qu'elle ait une spécificité différente et ne reconnaisse plus les auto-antigènes. Ce processus de modification de la spécificité du récepteur des cellules B immatures est appelé correction du récepteur.
 </t>
         </is>
       </c>
